--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1345705.529694905</v>
+        <v>1341568.372444754</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>117.2278100992616</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>22.19039300819541</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.8004760165077</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.781160222249216</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>293.7257750977136</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>300.9308739485148</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.12181934614924</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>69.63957399764172</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>111.1822535959279</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.68052496925104</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>103.856927971623</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>95.12712756824217</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758715</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>72.60410776434607</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>205.7440206868697</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>100.9884800080869</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>274.1357181000192</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>40.96105405076471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060555</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>190.7873652671531</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>95.12712756824324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>2057.32755894284</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="W2" t="n">
-        <v>1621.835993060943</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="X2" t="n">
-        <v>1248.370234799863</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>2443.927399006962</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1001.276695922948</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>496.1664670606423</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>824.8383149077156</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>824.8383149077156</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.0457357641855</v>
+        <v>53.04593830764878</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1545.062936918766</v>
+        <v>1089.391082610343</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>720.4285656699317</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>362.1628670631812</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>362.1628670631812</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>355.2173663139777</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.83159218888</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1545.062936918766</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X5" t="n">
-        <v>1545.062936918766</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1545.062936918766</v>
+        <v>1089.391082610343</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.0381161665167</v>
+        <v>903.4321187182926</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386097</v>
+        <v>734.4959357903857</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386097</v>
+        <v>584.37929637805</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>436.4662027956568</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>289.5762552977465</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>121.589790606025</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>121.589790606025</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354876</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374703</v>
+        <v>1305.873162692062</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939401</v>
+        <v>1085.080583548532</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2450.034021737602</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2241.288380343426</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>1987.707319607606</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1656.644432264035</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1303.875776993921</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182945</v>
+        <v>930.4100187328411</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>1057.327935297104</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1420.589954256325</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1807.87508285327</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1023.652964409588</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1244.445543553119</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>1244.445543553119</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>1023.652964409588</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
@@ -5521,22 +5521,22 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.684541140056</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.000052934169</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.582882897208</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556607</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.4567403631473</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.3401009508116</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.4270073684185</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>337.5370598705081</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3007.624207651098</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2838.688024723192</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2688.571385310856</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2540.658291728463</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2393.768344230552</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3189.272672481338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>2381.235169913446</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>2817.800993781637</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,22 +7730,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2824.769373306003</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>2728.681365661313</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45.44676101130807</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013359</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>154.0169020165188</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>35.91627445172469</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>50.29392045468907</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>80.44045370237444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>64.53565828418192</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>245.5619442858263</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>61.35027805667491</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>72.11969353038459</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936306</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140037</v>
@@ -26352,7 +26352,7 @@
         <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140037</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.7268316249</v>
@@ -26432,34 +26432,34 @@
         <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="N4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="O4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707361</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-846974.2209288196</v>
+        <v>-846974.2209288189</v>
       </c>
       <c r="C6" t="n">
-        <v>267777.5626471003</v>
+        <v>267777.5626471004</v>
       </c>
       <c r="D6" t="n">
-        <v>267777.5626471005</v>
+        <v>267777.5626471004</v>
       </c>
       <c r="E6" t="n">
-        <v>-131217.4361311569</v>
+        <v>-131564.8153855137</v>
       </c>
       <c r="F6" t="n">
-        <v>376268.0054933894</v>
+        <v>375920.6262390322</v>
       </c>
       <c r="G6" t="n">
-        <v>376268.0054933892</v>
+        <v>375920.6262390323</v>
       </c>
       <c r="H6" t="n">
-        <v>376268.005493389</v>
+        <v>375920.6262390323</v>
       </c>
       <c r="I6" t="n">
-        <v>376268.005493389</v>
+        <v>375920.6262390323</v>
       </c>
       <c r="J6" t="n">
-        <v>208662.8276834066</v>
+        <v>208315.4484290497</v>
       </c>
       <c r="K6" t="n">
-        <v>376268.0054933891</v>
+        <v>375920.6262390321</v>
       </c>
       <c r="L6" t="n">
-        <v>376268.0054933889</v>
+        <v>375920.6262390322</v>
       </c>
       <c r="M6" t="n">
-        <v>243660.7117644625</v>
+        <v>243313.3325101054</v>
       </c>
       <c r="N6" t="n">
-        <v>376268.0054933893</v>
+        <v>375920.6262390323</v>
       </c>
       <c r="O6" t="n">
-        <v>376268.005493389</v>
+        <v>375920.6262390323</v>
       </c>
       <c r="P6" t="n">
-        <v>376268.0054933892</v>
+        <v>375920.6262390323</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6.224405299532791</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>327.0505757092176</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.03150416542957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>103.0154349816514</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>71.547116673294</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>110.6168288244392</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.7101608357881</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>35.15702120625886</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>12.26996180286648</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>343.5574136868025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>63.38989312700485</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,13 +32314,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7284881171895</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34219,7 +34219,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868574</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>144.237359508534</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>412.3780932933486</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321904</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676405</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>520.9482342985593</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35266,16 +35266,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>371.3409564478476</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344831</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35664,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7540807028592577</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648392</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>6.395920534175052</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1341568.372444754</v>
+        <v>1343328.902747539</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>117.2278100992616</v>
+        <v>18.52833887369382</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.781160222249216</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>125.1090476301069</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>300.9308739485148</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>15.83802201794761</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>69.63957399764172</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>111.1822535959279</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>128.4095443148206</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542857</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>62.36981422367017</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1686991936193</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D16" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>96.78074638267616</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>41.74133133758715</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64713141731118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>109.8058856274582</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>108.5813113004301</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>274.1357181000192</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>50.17139158339545</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>151.8555862333575</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>190.7873652671531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.32755894284</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2443.927399006962</v>
+        <v>2543.623834588343</v>
       </c>
       <c r="T2" t="n">
-        <v>2443.927399006962</v>
+        <v>2334.878193194168</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.927399006962</v>
+        <v>2334.878193194168</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.927399006962</v>
+        <v>2003.815305850597</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.927399006962</v>
+        <v>1651.046650580483</v>
       </c>
       <c r="X2" t="n">
-        <v>2443.927399006962</v>
+        <v>1277.580892319403</v>
       </c>
       <c r="Y2" t="n">
-        <v>2443.927399006962</v>
+        <v>1277.580892319403</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764878</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764878</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D4" t="n">
-        <v>53.04593830764878</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>53.04593830764878</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>53.04593830764878</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>53.04593830764878</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>53.04593830764878</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1510.073344690551</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1510.073344690551</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1510.073344690551</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1255.388856484664</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>965.9716864477035</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764878</v>
+        <v>737.9821355496862</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764878</v>
+        <v>517.189556406156</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1089.391082610343</v>
+        <v>1571.558046306621</v>
       </c>
       <c r="C5" t="n">
-        <v>720.4285656699317</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D5" t="n">
-        <v>362.1628670631812</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>362.1628670631812</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>355.2173663139777</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2546.341326361824</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2546.341326361824</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2292.760265626004</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>1961.697378282433</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847235</v>
+        <v>1961.697378282433</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586155</v>
+        <v>1961.697378282433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1089.391082610343</v>
+        <v>1571.558046306621</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M6" t="n">
         <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
         <v>1884.562538506774</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.4321187182926</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C7" t="n">
-        <v>734.4959357903857</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D7" t="n">
-        <v>584.37929637805</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E7" t="n">
-        <v>436.4662027956568</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>289.5762552977465</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>121.589790606025</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>121.589790606025</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.86271359008</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1533.86271359008</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>1305.873162692062</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y7" t="n">
-        <v>1085.080583548532</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="C8" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D8" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4816,40 +4816,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2450.034021737602</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2241.288380343426</v>
+        <v>2307.933510507616</v>
       </c>
       <c r="U8" t="n">
-        <v>1987.707319607606</v>
+        <v>2307.933510507616</v>
       </c>
       <c r="V8" t="n">
-        <v>1656.644432264035</v>
+        <v>1976.870623164045</v>
       </c>
       <c r="W8" t="n">
-        <v>1303.875776993921</v>
+        <v>1624.101967893931</v>
       </c>
       <c r="X8" t="n">
-        <v>930.4100187328411</v>
+        <v>1250.636209632851</v>
       </c>
       <c r="Y8" t="n">
-        <v>540.2706867570294</v>
+        <v>860.4968776570395</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143488</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>884.9085321458207</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F13" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>198.027470314254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5293,25 +5293,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>135.9796239950296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,16 +5828,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
         <v>1373.553594266881</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5940,22 +5940,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2337.284991357604</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.683526380545</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1700.556314752913</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1445.871826547026</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1156.454656510065</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>928.4651056120481</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>707.672526468518</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>982.1492342949674</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>813.2130513670605</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>663.0964119547248</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>515.1833183723317</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>368.2933708744213</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443772</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.9556134883061418</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013359</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241558</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780633</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>83.05123379926107</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>37.12601365260461</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D16" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>83.05123379926114</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.44497470121448</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>12.04875628922491</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>115.3527467088734</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>65.54986409393072</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>61.35027805667491</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936306</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936306</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="D4" t="n">
         <v>131909.7268316249</v>
-      </c>
-      <c r="D4" t="n">
-        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
@@ -26435,7 +26435,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
@@ -26447,19 +26447,19 @@
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-846974.2209288189</v>
+        <v>-846974.2209288193</v>
       </c>
       <c r="C6" t="n">
-        <v>267777.5626471004</v>
+        <v>267777.5626471003</v>
       </c>
       <c r="D6" t="n">
         <v>267777.5626471004</v>
       </c>
       <c r="E6" t="n">
-        <v>-131564.8153855137</v>
+        <v>-131252.174056592</v>
       </c>
       <c r="F6" t="n">
-        <v>375920.6262390322</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="G6" t="n">
-        <v>375920.6262390323</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="H6" t="n">
-        <v>375920.6262390323</v>
+        <v>376233.2675679536</v>
       </c>
       <c r="I6" t="n">
-        <v>375920.6262390323</v>
+        <v>376233.2675679532</v>
       </c>
       <c r="J6" t="n">
-        <v>208315.4484290497</v>
+        <v>208628.0897579709</v>
       </c>
       <c r="K6" t="n">
-        <v>375920.6262390321</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="L6" t="n">
-        <v>375920.6262390322</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="M6" t="n">
-        <v>243313.3325101054</v>
+        <v>243625.9738390268</v>
       </c>
       <c r="N6" t="n">
-        <v>375920.6262390323</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="O6" t="n">
-        <v>375920.6262390323</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="P6" t="n">
-        <v>375920.6262390323</v>
+        <v>376233.2675679534</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241341</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.224405299532791</v>
+        <v>104.9238765251005</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0154349816514</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>69.55341273163052</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>110.6168288244392</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>107.6141933808467</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>35.15702120625886</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>12.26996180286648</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>78.24864066541312</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1398273256871</v>
+        <v>468.377827851028</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>430.1367711736326</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,16 +33982,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>548.8125296967492</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>332.9841464938405</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>367.8869457703467</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321904</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676405</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>568.1422977634695</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215482</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620059</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>256.1654199113569</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>291.5823913937584</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,16 +37630,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>414.838122282419</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
